--- a/RPL_V2/xlsx/cup_8.xlsx
+++ b/RPL_V2/xlsx/cup_8.xlsx
@@ -1657,6 +1657,9 @@
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>99</v>
@@ -2210,6 +2213,9 @@
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
         <v>109</v>

--- a/RPL_V2/xlsx/cup_8.xlsx
+++ b/RPL_V2/xlsx/cup_8.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -328,9 +333,6 @@
     <t>Егор Титов</t>
   </si>
   <si>
-    <t xml:space="preserve"> Хвича Кварацхелия</t>
-  </si>
-  <si>
     <t>ЦСКА</t>
   </si>
   <si>
@@ -502,9 +504,6 @@
     <t>logo_ural</t>
   </si>
   <si>
-    <t>logo_broke</t>
-  </si>
-  <si>
     <t>Станислав Черчесов</t>
   </si>
   <si>
@@ -553,9 +552,6 @@
     <t>Фёдор Чалов</t>
   </si>
   <si>
-    <t>Broke Boys</t>
-  </si>
-  <si>
     <t>Црвена звезда</t>
   </si>
   <si>
@@ -890,13 +886,22 @@
   </si>
   <si>
     <t>Мяч</t>
+  </si>
+  <si>
+    <t>Хвича Кварацхелия</t>
+  </si>
+  <si>
+    <t>logo_lotus</t>
+  </si>
+  <si>
+    <t>Lotus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,17 +960,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1003,9 +1016,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,9 +1050,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,9 +1085,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1246,14 +1261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1329,34 +1346,34 @@
         <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N2" t="s">
         <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P2" t="s">
         <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1379,34 +1396,34 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N3" t="s">
         <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P3" t="s">
         <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1429,34 +1446,34 @@
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L4" t="s">
         <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N4" t="s">
         <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P4" t="s">
         <v>49</v>
       </c>
       <c r="Q4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1479,34 +1496,34 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N5" t="s">
         <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P5" t="s">
         <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1526,37 +1543,37 @@
         <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M6">
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O6">
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1579,34 +1596,34 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N7" t="s">
         <v>49</v>
       </c>
       <c r="O7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P7" t="s">
         <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1629,34 +1646,34 @@
         <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s">
         <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P8" t="s">
         <v>49</v>
       </c>
       <c r="Q8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1682,34 +1699,34 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N9" t="s">
         <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P9" t="s">
         <v>49</v>
       </c>
       <c r="Q9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1732,7 +1749,7 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J10" t="s">
         <v>81</v>
@@ -1741,25 +1758,25 @@
         <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1782,34 +1799,34 @@
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L11" t="s">
         <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N11" t="s">
         <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1832,34 +1849,34 @@
         <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L12" t="s">
         <v>49</v>
       </c>
       <c r="M12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N12" t="s">
         <v>49</v>
       </c>
       <c r="O12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P12" t="s">
         <v>49</v>
       </c>
       <c r="Q12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1882,34 +1899,34 @@
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
         <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s">
         <v>49</v>
       </c>
       <c r="M13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N13" t="s">
         <v>49</v>
       </c>
       <c r="O13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P13" t="s">
         <v>49</v>
       </c>
       <c r="Q13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1926,40 +1943,40 @@
         <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="H14" t="s">
         <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
         <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N14" t="s">
         <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P14" t="s">
         <v>49</v>
       </c>
       <c r="Q14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1976,31 +1993,31 @@
         <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N15" t="s">
         <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P15" t="s">
         <v>83</v>
@@ -2009,7 +2026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2026,40 +2043,40 @@
         <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
         <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
         <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N16" t="s">
         <v>49</v>
       </c>
       <c r="O16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P16" t="s">
         <v>49</v>
       </c>
       <c r="Q16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2076,40 +2093,40 @@
         <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
         <v>49</v>
       </c>
       <c r="M17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N17" t="s">
         <v>49</v>
       </c>
       <c r="O17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P17" t="s">
         <v>49</v>
       </c>
       <c r="Q17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2135,13 +2152,13 @@
         <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
         <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s">
         <v>81</v>
@@ -2150,19 +2167,19 @@
         <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2179,40 +2196,40 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s">
         <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P19" t="s">
         <v>84</v>
       </c>
       <c r="Q19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2229,40 +2246,40 @@
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
         <v>49</v>
       </c>
       <c r="M20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s">
         <v>49</v>
       </c>
       <c r="O20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P20" t="s">
         <v>49</v>
       </c>
       <c r="Q20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2279,40 +2296,40 @@
         <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2329,19 +2346,19 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
         <v>49</v>
@@ -2353,16 +2370,16 @@
         <v>49</v>
       </c>
       <c r="O22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P22" t="s">
         <v>49</v>
       </c>
       <c r="Q22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2412,7 +2429,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2429,40 +2446,40 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
       </c>
       <c r="M24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N24" t="s">
         <v>49</v>
       </c>
       <c r="O24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s">
         <v>49</v>
       </c>
       <c r="Q24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2479,40 +2496,40 @@
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
         <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s">
         <v>49</v>
       </c>
       <c r="M25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N25" t="s">
         <v>49</v>
       </c>
       <c r="O25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s">
         <v>49</v>
       </c>
       <c r="Q25" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2529,40 +2546,40 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
         <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J26" t="s">
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s">
         <v>49</v>
       </c>
       <c r="M26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N26" t="s">
         <v>49</v>
       </c>
       <c r="O26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P26" t="s">
         <v>49</v>
       </c>
       <c r="Q26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2582,40 +2599,40 @@
         <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s">
         <v>49</v>
       </c>
       <c r="M27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N27" t="s">
         <v>49</v>
       </c>
       <c r="O27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P27" t="s">
         <v>49</v>
       </c>
       <c r="Q27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2635,40 +2652,40 @@
         <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s">
         <v>49</v>
       </c>
       <c r="M28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N28" t="s">
         <v>49</v>
       </c>
       <c r="O28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P28" t="s">
         <v>49</v>
       </c>
       <c r="Q28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2688,40 +2705,40 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" t="s">
         <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
       </c>
       <c r="K29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s">
         <v>49</v>
       </c>
       <c r="M29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N29" t="s">
         <v>49</v>
       </c>
       <c r="O29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P29" t="s">
         <v>49</v>
       </c>
       <c r="Q29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2741,40 +2758,40 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
         <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s">
         <v>49</v>
       </c>
       <c r="M30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N30" t="s">
         <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2794,40 +2811,40 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
         <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s">
         <v>49</v>
       </c>
       <c r="M31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N31" t="s">
         <v>49</v>
       </c>
       <c r="O31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P31" t="s">
         <v>49</v>
       </c>
       <c r="Q31" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2847,40 +2864,40 @@
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
         <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J32" t="s">
         <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s">
         <v>49</v>
       </c>
       <c r="M32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N32" t="s">
         <v>49</v>
       </c>
       <c r="O32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P32" t="s">
         <v>49</v>
       </c>
       <c r="Q32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2897,40 +2914,40 @@
         <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" t="s">
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J33" t="s">
         <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s">
         <v>49</v>
       </c>
       <c r="M33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s">
         <v>49</v>
       </c>
       <c r="O33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P33" t="s">
         <v>49</v>
       </c>
       <c r="Q33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2947,40 +2964,40 @@
         <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H34" t="s">
         <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J34" t="s">
         <v>49</v>
       </c>
       <c r="K34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s">
         <v>49</v>
       </c>
       <c r="M34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N34" t="s">
         <v>49</v>
       </c>
       <c r="O34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P34" t="s">
         <v>49</v>
       </c>
       <c r="Q34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2997,40 +3014,40 @@
         <v>49</v>
       </c>
       <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" t="s">
         <v>123</v>
       </c>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" t="s">
-        <v>124</v>
-      </c>
       <c r="N35" t="s">
         <v>49</v>
       </c>
       <c r="O35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P35" t="s">
         <v>49</v>
       </c>
       <c r="Q35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3047,40 +3064,40 @@
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H36" t="s">
         <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J36" t="s">
         <v>49</v>
       </c>
       <c r="K36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s">
         <v>49</v>
       </c>
       <c r="M36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N36" t="s">
         <v>49</v>
       </c>
       <c r="O36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P36" t="s">
         <v>49</v>
       </c>
       <c r="Q36" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3097,37 +3114,37 @@
         <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
         <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J37" t="s">
         <v>49</v>
       </c>
       <c r="K37" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s">
         <v>49</v>
       </c>
       <c r="M37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N37" t="s">
         <v>49</v>
       </c>
       <c r="O37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s">
         <v>49</v>
       </c>
       <c r="Q37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
